--- a/test/TestFile/simpleTestData/repeat_copy.xlsx
+++ b/test/TestFile/simpleTestData/repeat_copy.xlsx
@@ -415,7 +415,7 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>y#Szo#auto</v>
+        <v>W#XvV#auto</v>
       </c>
       <c r="B4" t="str">
         <v>不限速</v>
@@ -426,7 +426,7 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>i#kvc#auto</v>
+        <v>P#UFi#auto</v>
       </c>
       <c r="B5" t="str">
         <v>自动分配网速</v>
@@ -448,7 +448,7 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>R#Eii#type</v>
+        <v>V#MLI#type</v>
       </c>
       <c r="B7" t="str">
         <v>服务器类型</v>
@@ -481,7 +481,7 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>s#qOj#port</v>
+        <v>Q#FJe#port</v>
       </c>
       <c r="B10" t="str">
         <v>接口</v>
@@ -525,7 +525,7 @@
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>C#JrI#Show</v>
+        <v>K#oeg#Show</v>
       </c>
       <c r="B14" t="str">
         <v>显示详情</v>
@@ -536,7 +536,7 @@
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>C#ByR#Hide</v>
+        <v>q#iTv#Hide</v>
       </c>
       <c r="B15" t="str">
         <v>隐藏详情</v>
@@ -547,7 +547,7 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>d#lOz#auto</v>
+        <v>y#THg#auto</v>
       </c>
       <c r="B16" t="str">
         <v>自动</v>
@@ -558,7 +558,7 @@
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>a#ghP#auto</v>
+        <v>p#wLh#auto</v>
       </c>
       <c r="B17" t="str">
         <v>不限速</v>
@@ -569,7 +569,7 @@
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>x#xsX#type</v>
+        <v>n#Tzh#type</v>
       </c>
       <c r="B18" t="str">
         <v>類型</v>

--- a/test/TestFile/simpleTestData/repeat_copy.xlsx
+++ b/test/TestFile/simpleTestData/repeat_copy.xlsx
@@ -415,7 +415,7 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>W#XvV#auto</v>
+        <v>V#qOI#auto</v>
       </c>
       <c r="B4" t="str">
         <v>不限速</v>
@@ -426,7 +426,7 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>P#UFi#auto</v>
+        <v>s#XBF#auto</v>
       </c>
       <c r="B5" t="str">
         <v>自动分配网速</v>
@@ -448,7 +448,7 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>V#MLI#type</v>
+        <v>f#hOA#type</v>
       </c>
       <c r="B7" t="str">
         <v>服务器类型</v>
@@ -481,7 +481,7 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Q#FJe#port</v>
+        <v>G#tkF#port</v>
       </c>
       <c r="B10" t="str">
         <v>接口</v>
@@ -525,7 +525,7 @@
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>K#oeg#Show</v>
+        <v>I#FlB#Show</v>
       </c>
       <c r="B14" t="str">
         <v>显示详情</v>
@@ -536,7 +536,7 @@
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>q#iTv#Hide</v>
+        <v>U#AhK#Hide</v>
       </c>
       <c r="B15" t="str">
         <v>隐藏详情</v>
@@ -547,7 +547,7 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>y#THg#auto</v>
+        <v>S#Ocl#auto</v>
       </c>
       <c r="B16" t="str">
         <v>自动</v>
@@ -558,7 +558,7 @@
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>p#wLh#auto</v>
+        <v>D#aHA#auto</v>
       </c>
       <c r="B17" t="str">
         <v>不限速</v>
@@ -569,7 +569,7 @@
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>n#Tzh#type</v>
+        <v>A#VQB#type</v>
       </c>
       <c r="B18" t="str">
         <v>類型</v>
